--- a/src/test/resources/file/Book1.xlsx
+++ b/src/test/resources/file/Book1.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dy/Documents/PRACTICE_JAVA/sel_web1/src/test/resources/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F3CD4E-0A9D-CD40-B0D6-D8A57B77D8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A2858C-A624-764E-9D73-37F24C2197BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{EEBE8391-784C-6847-A450-AD3B12F202E2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -434,7 +434,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
